--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1717437.047886041</v>
+        <v>-1719996.318453598</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>16.53229608419349</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -674,7 +674,7 @@
         <v>410.9662774206981</v>
       </c>
       <c r="H2" t="n">
-        <v>295.0640301736143</v>
+        <v>183.8858928019408</v>
       </c>
       <c r="I2" t="n">
         <v>43.2945117796236</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.2029851842623</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>204.1129955007334</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.9987361002815</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>51.63921395317911</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>60.57836346326006</v>
       </c>
       <c r="G4" t="n">
         <v>166.0457926480648</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9326943004822</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.95340549104682</v>
@@ -868,7 +868,7 @@
         <v>190.1172987294701</v>
       </c>
       <c r="T4" t="n">
-        <v>219.6343371202345</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2129282631967</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>325.2201149960228</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>346.5301246361469</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,13 +1060,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>141.4867229439996</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1102,25 +1102,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>7.043238784029101</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>272.2741925178123</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>368.0554580906434</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>143.1348655251532</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1306,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>113.6282818814338</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>132.1190787273684</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763444</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016438</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>46.29306638367405</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179972</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179098</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,10 +2293,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>171.1529885179049</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>214.0647808588573</v>
+        <v>285.4827669718941</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703264</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673015</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,7 +3673,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1197.284403637216</v>
+        <v>1437.246482743418</v>
       </c>
       <c r="C2" t="n">
-        <v>1180.585114663283</v>
+        <v>1068.283965803006</v>
       </c>
       <c r="D2" t="n">
-        <v>822.3194160565322</v>
+        <v>710.0182671962557</v>
       </c>
       <c r="E2" t="n">
-        <v>822.3194160565322</v>
+        <v>710.0182671962557</v>
       </c>
       <c r="F2" t="n">
-        <v>822.3194160565322</v>
+        <v>710.0182671962557</v>
       </c>
       <c r="G2" t="n">
-        <v>407.201964116433</v>
+        <v>294.9008152561567</v>
       </c>
       <c r="H2" t="n">
         <v>109.1574891935902</v>
       </c>
       <c r="I2" t="n">
-        <v>65.42565911316235</v>
+        <v>65.42565911316233</v>
       </c>
       <c r="J2" t="n">
-        <v>250.5613272725632</v>
+        <v>250.5613272725626</v>
       </c>
       <c r="K2" t="n">
-        <v>578.7702206183958</v>
+        <v>578.7702206183944</v>
       </c>
       <c r="L2" t="n">
-        <v>1022.844136887446</v>
+        <v>1022.844136887444</v>
       </c>
       <c r="M2" t="n">
-        <v>1548.631370064183</v>
+        <v>1548.631370064181</v>
       </c>
       <c r="N2" t="n">
-        <v>2087.540198746181</v>
+        <v>2087.540198746179</v>
       </c>
       <c r="O2" t="n">
-        <v>2583.081262767917</v>
+        <v>2583.081262767914</v>
       </c>
       <c r="P2" t="n">
-        <v>2971.513095303806</v>
+        <v>2971.513095303804</v>
       </c>
       <c r="Q2" t="n">
-        <v>3215.036478301002</v>
+        <v>3215.036478301</v>
       </c>
       <c r="R2" t="n">
-        <v>3271.282955658118</v>
+        <v>3271.282955658116</v>
       </c>
       <c r="S2" t="n">
-        <v>3159.966809007348</v>
+        <v>3271.282955658116</v>
       </c>
       <c r="T2" t="n">
-        <v>2953.792066077314</v>
+        <v>3271.282955658116</v>
       </c>
       <c r="U2" t="n">
-        <v>2700.257989208343</v>
+        <v>3271.282955658116</v>
       </c>
       <c r="V2" t="n">
-        <v>2700.257989208343</v>
+        <v>2940.220068314545</v>
       </c>
       <c r="W2" t="n">
-        <v>2347.489333938229</v>
+        <v>2587.451413044431</v>
       </c>
       <c r="X2" t="n">
-        <v>1974.023575677149</v>
+        <v>2213.985654783351</v>
       </c>
       <c r="Y2" t="n">
-        <v>1583.884243701337</v>
+        <v>1823.84632280754</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3149953501908</v>
+        <v>1647.371745645389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8619660690638</v>
+        <v>1472.918716364262</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9275564078125</v>
+        <v>1323.98430670301</v>
       </c>
       <c r="E3" t="n">
-        <v>448.690101402357</v>
+        <v>1164.746851697555</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1555434292419</v>
+        <v>1018.21229372444</v>
       </c>
       <c r="G3" t="n">
-        <v>165.7683651841082</v>
+        <v>881.825115479306</v>
       </c>
       <c r="H3" t="n">
-        <v>75.03392728158295</v>
+        <v>791.0906775767808</v>
       </c>
       <c r="I3" t="n">
-        <v>65.42565911316235</v>
+        <v>781.4824094083601</v>
       </c>
       <c r="J3" t="n">
-        <v>156.8733478056105</v>
+        <v>872.9300981008083</v>
       </c>
       <c r="K3" t="n">
-        <v>391.3268380794819</v>
+        <v>1107.38358837468</v>
       </c>
       <c r="L3" t="n">
-        <v>752.9010302656275</v>
+        <v>1468.957780560825</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.197926366258</v>
+        <v>1910.254676661455</v>
       </c>
       <c r="N3" t="n">
-        <v>1661.583283102522</v>
+        <v>2377.64003339772</v>
       </c>
       <c r="O3" t="n">
-        <v>2066.929778176383</v>
+        <v>2782.986528471581</v>
       </c>
       <c r="P3" t="n">
-        <v>2372.923010208138</v>
+        <v>3088.979760503336</v>
       </c>
       <c r="Q3" t="n">
-        <v>2555.226205362918</v>
+        <v>3271.282955658116</v>
       </c>
       <c r="R3" t="n">
-        <v>2555.226205362918</v>
+        <v>3271.282955658116</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.341079122718</v>
+        <v>3141.397829417916</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.601027250337</v>
+        <v>2948.657777545535</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.53159630069</v>
+        <v>2720.588346595888</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.379488068947</v>
+        <v>2485.436238364145</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.142131340745</v>
+        <v>2231.198881635944</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.290631135213</v>
+        <v>2023.347381430411</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.530332370259</v>
+        <v>1815.587082665457</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>676.5288453916514</v>
+        <v>859.2375968563755</v>
       </c>
       <c r="C4" t="n">
-        <v>624.368023216723</v>
+        <v>690.3014139284686</v>
       </c>
       <c r="D4" t="n">
-        <v>624.368023216723</v>
+        <v>540.1847745161328</v>
       </c>
       <c r="E4" t="n">
-        <v>624.368023216723</v>
+        <v>392.2716809337398</v>
       </c>
       <c r="F4" t="n">
-        <v>477.4780757188127</v>
+        <v>331.0814148092347</v>
       </c>
       <c r="G4" t="n">
-        <v>309.7550528419796</v>
+        <v>163.3583919324016</v>
       </c>
       <c r="H4" t="n">
         <v>163.3583919324016</v>
       </c>
       <c r="I4" t="n">
-        <v>65.42565911316235</v>
+        <v>65.42565911316233</v>
       </c>
       <c r="J4" t="n">
-        <v>109.1495242182615</v>
+        <v>109.1495242182614</v>
       </c>
       <c r="K4" t="n">
-        <v>310.8381027401521</v>
+        <v>310.8381027401522</v>
       </c>
       <c r="L4" t="n">
-        <v>624.4564789039122</v>
+        <v>624.4564789039123</v>
       </c>
       <c r="M4" t="n">
-        <v>965.5122071220435</v>
+        <v>965.5122071220436</v>
       </c>
       <c r="N4" t="n">
-        <v>1303.893008842035</v>
+        <v>1303.893008842036</v>
       </c>
       <c r="O4" t="n">
         <v>1600.426152235784</v>
@@ -4516,22 +4516,22 @@
         <v>1623.818632148415</v>
       </c>
       <c r="T4" t="n">
-        <v>1401.965766370401</v>
+        <v>1623.818632148415</v>
       </c>
       <c r="U4" t="n">
-        <v>1112.861798427778</v>
+        <v>1334.714664205793</v>
       </c>
       <c r="V4" t="n">
-        <v>858.1773102218912</v>
+        <v>1080.030175999906</v>
       </c>
       <c r="W4" t="n">
-        <v>858.1773102218912</v>
+        <v>1080.030175999906</v>
       </c>
       <c r="X4" t="n">
-        <v>858.1773102218912</v>
+        <v>1080.030175999906</v>
       </c>
       <c r="Y4" t="n">
-        <v>858.1773102218912</v>
+        <v>859.2375968563755</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.795585684488</v>
+        <v>1175.30093260579</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1175.30093260579</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>817.0352339990397</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649822</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>2788.565186649822</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2438.534757724422</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y5" t="n">
-        <v>2048.39542574861</v>
+        <v>1561.900772669912</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>822.6111008985771</v>
+        <v>531.7821255545683</v>
       </c>
       <c r="C7" t="n">
-        <v>653.6749179706702</v>
+        <v>362.8459426266614</v>
       </c>
       <c r="D7" t="n">
-        <v>503.5582785583345</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E7" t="n">
-        <v>355.6451849759413</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F7" t="n">
-        <v>355.6451849759413</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.676735765777</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>1004.259565728817</v>
+        <v>1162.212720426356</v>
       </c>
       <c r="X7" t="n">
-        <v>1004.259565728817</v>
+        <v>934.2231695283382</v>
       </c>
       <c r="Y7" t="n">
-        <v>1004.259565728817</v>
+        <v>713.4305903848081</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1561.900772669911</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C8" t="n">
-        <v>1192.9382557295</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1192.9382557295</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1192.9382557295</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4802,19 +4802,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4838,16 +4838,16 @@
         <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645723</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.900772669911</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,37 +4884,37 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>550.0410834832817</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C10" t="n">
-        <v>381.1049005553748</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4990,22 +4990,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1531.002164368369</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1241.899297494012</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1241.899297494012</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W10" t="n">
-        <v>952.4821274570515</v>
+        <v>1067.25816976153</v>
       </c>
       <c r="X10" t="n">
-        <v>952.4821274570515</v>
+        <v>1067.25816976153</v>
       </c>
       <c r="Y10" t="n">
-        <v>731.6895483135214</v>
+        <v>1067.25816976153</v>
       </c>
     </row>
     <row r="11">
@@ -5033,43 +5033,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5081,7 +5081,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,13 +5127,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232835</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038316</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179772</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570815</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138389</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>782.841029837709</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362694</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400754</v>
       </c>
       <c r="C16" t="n">
-        <v>552.8412329032296</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V16" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W16" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X16" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138449</v>
       </c>
       <c r="Y16" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703152</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5677,7 +5677,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188007</v>
+        <v>951.7772127656156</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>782.8410298377087</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>632.724390425373</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5914,7 +5914,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533435</v>
+        <v>1871.624977674363</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1871.624977674363</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925705</v>
+        <v>1354.218256739385</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490404</v>
+        <v>1133.425677595855</v>
       </c>
     </row>
     <row r="23">
@@ -5987,22 +5987,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.079034721979</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="26">
@@ -6203,10 +6203,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
         <v>435.7419440038343</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6619,13 +6619,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,16 +6643,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533435</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
         <v>1491.508541327549</v>
@@ -6661,7 +6661,7 @@
         <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925705</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
         <v>753.3092412490405</v>
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,10 +6695,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075809</v>
@@ -6710,10 +6710,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,7 +6859,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311325</v>
@@ -6877,7 +6877,7 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6892,10 +6892,10 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X34" t="n">
         <v>1280.33868158239</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,13 +7011,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,13 +7108,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
         <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7129,10 +7129,10 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X37" t="n">
         <v>1280.33868158239</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380725</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,13 +7825,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>348.7405956868141</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>111.1781373716735</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>110.2029851842623</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.1129955007334</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.9987361002815</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,25 +22702,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>115.6076071454487</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>84.84268455967118</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.9326943004822</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.6343371202345</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891654</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>86.46557462472633</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>63.36835372228345</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>205.844576940154</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194259</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>115.0314858713392</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>72.11969353038681</v>
+        <v>0.7017074173500532</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194242</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194171</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194259</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26329,7 +26329,7 @@
         <v>121071.9899535009</v>
       </c>
       <c r="H2" t="n">
-        <v>121071.9899535008</v>
+        <v>121071.9899535009</v>
       </c>
       <c r="I2" t="n">
         <v>121071.9899535009</v>
@@ -26366,16 +26366,16 @@
         <v>1313514.533081207</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.05232074576</v>
+        <v>14479.05232074594</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>213977.8894125531</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.241841022668</v>
+        <v>3495.241841022801</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680574</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680583</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680583</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>19767.83547989931</v>
+        <v>19767.83547989929</v>
       </c>
       <c r="M4" t="n">
-        <v>19767.83547989928</v>
+        <v>19767.83547989929</v>
       </c>
       <c r="N4" t="n">
         <v>19767.83547989928</v>
       </c>
       <c r="O4" t="n">
+        <v>19767.8354798993</v>
+      </c>
+      <c r="P4" t="n">
         <v>19767.83547989928</v>
-      </c>
-      <c r="P4" t="n">
-        <v>19767.83547989929</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1331179.946321782</v>
+        <v>-1331540.029337499</v>
       </c>
       <c r="C6" t="n">
-        <v>-90220.73839065366</v>
+        <v>-90220.73839065383</v>
       </c>
       <c r="D6" t="n">
-        <v>-75741.68606990791</v>
+        <v>-75741.68606990788</v>
       </c>
       <c r="E6" t="n">
-        <v>-317239.9778945672</v>
+        <v>-317274.7158200031</v>
       </c>
       <c r="F6" t="n">
-        <v>8172.483912787997</v>
+        <v>8137.745987352202</v>
       </c>
       <c r="G6" t="n">
-        <v>8172.483912787953</v>
+        <v>8137.745987352231</v>
       </c>
       <c r="H6" t="n">
-        <v>8172.483912787851</v>
+        <v>8137.745987352246</v>
       </c>
       <c r="I6" t="n">
-        <v>8172.483912787924</v>
+        <v>8137.745987352289</v>
       </c>
       <c r="J6" t="n">
-        <v>-205805.4054997652</v>
+        <v>-205840.1434252008</v>
       </c>
       <c r="K6" t="n">
-        <v>4677.242071765271</v>
+        <v>4642.504146329433</v>
       </c>
       <c r="L6" t="n">
-        <v>-19203.40384780396</v>
+        <v>-19203.40384780397</v>
       </c>
       <c r="M6" t="n">
-        <v>-84830.71378968397</v>
+        <v>-84830.71378968412</v>
       </c>
       <c r="N6" t="n">
-        <v>224.3141458278405</v>
+        <v>224.3141458278114</v>
       </c>
       <c r="O6" t="n">
-        <v>224.3141458277969</v>
+        <v>224.3141458278114</v>
       </c>
       <c r="P6" t="n">
-        <v>224.3141458278405</v>
+        <v>224.3141458278114</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145294</v>
+        <v>817.820738914529</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145294</v>
+        <v>817.820738914529</v>
       </c>
       <c r="C4" t="n">
-        <v>13.58071648776331</v>
+        <v>13.58071648776388</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145294</v>
+        <v>817.8207389145292</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776331</v>
+        <v>13.58071648776365</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145294</v>
+        <v>817.820738914529</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776331</v>
+        <v>13.58071648776388</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>56.71025507623898</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>23.20097604232217</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,13 +27780,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>24.53908531502867</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>279.4797595525619</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>110.4596491456683</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>38.82058765106808</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>36.69711465678407</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>105.9206673947354</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-2.758800595377882e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-4.08504658571054e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>3.637978807091713e-12</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-8.722622624190989e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28804,19 +28804,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>414.644818552487</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,16 +33737,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>163.4402738502014</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096323</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35820,7 +35820,7 @@
         <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066286</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>159.048271228012</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,13 +37388,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
